--- a/Lab2/Part1/SensorCalibrationData.xlsx
+++ b/Lab2/Part1/SensorCalibrationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="560" windowWidth="38400" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>LED and Phototransistor calibration</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>V Ratio</t>
+  </si>
+  <si>
+    <t>X (mm)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0066</c:v>
+                  <c:v>0.0101538461538462</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0116</c:v>
@@ -339,7 +342,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement (mm)</a:t>
+                  <a:t>Displacement from Axis (mm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -413,18 +416,254 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fraction vs X</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.810000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0101538461538462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2133288648"/>
+        <c:axId val="-2133000104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2133288648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133000104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2133000104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133288648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -440,6 +679,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -770,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -783,12 +1052,12 @@
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -799,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -810,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -818,7 +1087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -826,7 +1095,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -837,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -848,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -859,12 +1128,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -880,8 +1149,11 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>-2</v>
       </c>
@@ -897,11 +1169,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14">
-        <f>(D14 - $B$10) / $B$9</f>
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f>(D14 - $B$10) / $B$8</f>
+        <v>1.0153846153846154E-2</v>
+      </c>
+      <c r="F14">
+        <f>B14-121+129.5+1.23-12.7/2</f>
+        <v>0.52000000000000135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15">
         <f>-2*0.95</f>
         <v>-1.9</v>
@@ -914,11 +1190,15 @@
         <v>0.12</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E24" si="0">(D15 - $B$10) / $B$9</f>
+        <f>(D15 - $B$10) / $B$9</f>
         <v>1.1599999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" ref="F15:F24" si="0">B15-121+129.5+1.23-12.7/2</f>
+        <v>1.4799999999999951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -934,11 +1214,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E16">
+        <f t="shared" ref="E15:E24" si="3">(D16 - $B$10) / $B$9</f>
+        <v>0.1116</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>0.1116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.949999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17">
         <v>-1</v>
       </c>
@@ -950,11 +1234,15 @@
         <v>1.3</v>
       </c>
       <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.12959999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2.3800000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18">
         <v>-0.95</v>
       </c>
@@ -966,11 +1254,15 @@
         <v>2.17</v>
       </c>
       <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>0.21659999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2.4299999999999979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19">
         <v>-0.5</v>
       </c>
@@ -982,11 +1274,15 @@
         <v>4.38</v>
       </c>
       <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.43760000000000004</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.43760000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2.8800000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1002,11 +1298,15 @@
         <v>7.01</v>
       </c>
       <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.7006</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>0.7006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>3.3800000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -1018,11 +1318,15 @@
         <v>8.15</v>
       </c>
       <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.8146000000000001</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.8146000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>3.8800000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22">
         <v>0.95</v>
       </c>
@@ -1034,11 +1338,15 @@
         <v>9.77</v>
       </c>
       <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.97660000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>4.3300000000000036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1054,11 +1362,15 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.99459999999999993</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>0.99459999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>4.8100000000000076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1074,8 +1386,12 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.99560000000000015</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>0.99560000000000015</v>
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Part1/SensorCalibrationData.xlsx
+++ b/Lab2/Part1/SensorCalibrationData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="560" windowWidth="38400" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="80" windowWidth="29220" windowHeight="18920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,37 +234,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.64</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.07</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.55</c:v>
+                  <c:v>5.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.45</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.93</c:v>
+                  <c:v>7.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.36</c:v>
+                  <c:v>9.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -276,7 +276,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0101538461538462</c:v>
+                  <c:v>0.0103937007874016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0116</c:v>
@@ -321,11 +321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137253144"/>
-        <c:axId val="-2137278600"/>
+        <c:axId val="2143861000"/>
+        <c:axId val="2143866568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137253144"/>
+        <c:axId val="2143861000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,12 +354,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137278600"/>
+        <c:crossAx val="2143866568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137278600"/>
+        <c:axId val="2143866568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137253144"/>
+        <c:crossAx val="2143861000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -512,7 +512,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0101538461538462</c:v>
+                  <c:v>0.0103937007874016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0116</c:v>
@@ -557,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133288648"/>
-        <c:axId val="-2133000104"/>
+        <c:axId val="2143898232"/>
+        <c:axId val="2143903944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133288648"/>
+        <c:axId val="2143898232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,12 +595,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133000104"/>
+        <c:crossAx val="2143903944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133000104"/>
+        <c:axId val="2143903944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133288648"/>
+        <c:crossAx val="2143898232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1100,7 +1100,8 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>6.5</v>
+        <f>12.7 / 2</f>
+        <v>6.35</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1163,14 +1164,14 @@
       </c>
       <c r="C14">
         <f>B14+$B$8</f>
-        <v>3.64</v>
+        <v>3.4899999999999998</v>
       </c>
       <c r="D14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14">
         <f>(D14 - $B$10) / $B$8</f>
-        <v>1.0153846153846154E-2</v>
+        <v>1.0393700787401577E-2</v>
       </c>
       <c r="F14">
         <f>B14-121+129.5+1.23-12.7/2</f>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="C15">
         <f>B15+$B$8</f>
-        <v>4.5999999999999996</v>
+        <v>4.4499999999999993</v>
       </c>
       <c r="D15">
         <v>0.12</v>
@@ -1194,7 +1195,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F24" si="0">B15-121+129.5+1.23-12.7/2</f>
+        <f>B15-121+129.5+1.23-12.7/2</f>
         <v>1.4799999999999951</v>
       </c>
     </row>
@@ -1203,22 +1204,22 @@
         <v>-1</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16" si="1">A16*$B$7</f>
+        <f t="shared" ref="B16" si="0">A16*$B$7</f>
         <v>-1.43</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" si="2">B16+$B$8</f>
-        <v>5.07</v>
+        <f t="shared" ref="C16" si="1">B16+$B$8</f>
+        <v>4.92</v>
       </c>
       <c r="D16">
         <v>1.1200000000000001</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E15:E24" si="3">(D16 - $B$10) / $B$9</f>
+        <f t="shared" ref="E16:E24" si="2">(D16 - $B$10) / $B$9</f>
         <v>0.1116</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F15:F24" si="3">B16-121+129.5+1.23-12.7/2</f>
         <v>1.949999999999994</v>
       </c>
     </row>
@@ -1227,18 +1228,18 @@
         <v>-1</v>
       </c>
       <c r="C17">
-        <f>B17+$B$8</f>
-        <v>5.5</v>
+        <f t="shared" ref="C17:C24" si="4">B17+$B$8</f>
+        <v>5.35</v>
       </c>
       <c r="D17">
         <v>1.3</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
         <v>2.3800000000000008</v>
       </c>
     </row>
@@ -1247,18 +1248,18 @@
         <v>-0.95</v>
       </c>
       <c r="C18">
-        <f>B18+$B$8</f>
-        <v>5.55</v>
+        <f t="shared" si="4"/>
+        <v>5.3999999999999995</v>
       </c>
       <c r="D18">
         <v>2.17</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="3"/>
-        <v>0.21659999999999999</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
         <v>2.4299999999999979</v>
       </c>
     </row>
@@ -1267,18 +1268,18 @@
         <v>-0.5</v>
       </c>
       <c r="C19">
-        <f>B19+$B$8</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>5.85</v>
       </c>
       <c r="D19">
         <v>4.38</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.43760000000000004</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="3"/>
-        <v>0.43760000000000004</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
         <v>2.8800000000000008</v>
       </c>
     </row>
@@ -1291,18 +1292,18 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>B20+$B$8</f>
-        <v>6.5</v>
+        <f t="shared" si="4"/>
+        <v>6.35</v>
       </c>
       <c r="D20">
         <v>7.01</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0.7006</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="3"/>
-        <v>0.7006</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
         <v>3.3800000000000008</v>
       </c>
     </row>
@@ -1311,18 +1312,18 @@
         <v>0.5</v>
       </c>
       <c r="C21">
-        <f>B21+$B$8</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>6.85</v>
       </c>
       <c r="D21">
         <v>8.15</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0.8146000000000001</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="3"/>
-        <v>0.8146000000000001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
         <v>3.8800000000000008</v>
       </c>
     </row>
@@ -1331,18 +1332,18 @@
         <v>0.95</v>
       </c>
       <c r="C22">
-        <f>B22+$B$8</f>
-        <v>7.45</v>
+        <f t="shared" si="4"/>
+        <v>7.3</v>
       </c>
       <c r="D22">
         <v>9.77</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="3"/>
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
         <v>4.3300000000000036</v>
       </c>
     </row>
@@ -1355,18 +1356,18 @@
         <v>1.43</v>
       </c>
       <c r="C23">
-        <f>B23+$B$8</f>
-        <v>7.93</v>
+        <f t="shared" si="4"/>
+        <v>7.7799999999999994</v>
       </c>
       <c r="D23">
         <v>9.9499999999999993</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.99459999999999993</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="3"/>
-        <v>0.99459999999999993</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
         <v>4.8100000000000076</v>
       </c>
     </row>
@@ -1379,18 +1380,18 @@
         <v>2.86</v>
       </c>
       <c r="C24">
-        <f>B24+$B$8</f>
-        <v>9.36</v>
+        <f t="shared" si="4"/>
+        <v>9.2099999999999991</v>
       </c>
       <c r="D24">
         <v>9.9600000000000009</v>
       </c>
       <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.99560000000000015</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.99560000000000015</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
         <v>6.24</v>
       </c>
     </row>
